--- a/data/trans_orig/P1407-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1407-Clase-trans_orig.xlsx
@@ -755,19 +755,19 @@
         <v>5193</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11952</v>
+        <v>11444</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01651421080292796</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006442869724593783</v>
+        <v>0.006429999700708461</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03801028713783949</v>
+        <v>0.03639298745513214</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -776,19 +776,19 @@
         <v>5193</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1976</v>
+        <v>2033</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11334</v>
+        <v>11336</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00690861435572012</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0026283212159462</v>
+        <v>0.002704440447504405</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01507857113154321</v>
+        <v>0.01508179917381211</v>
       </c>
     </row>
     <row r="5">
@@ -818,19 +818,19 @@
         <v>309261</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>302502</v>
+        <v>303010</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>312428</v>
+        <v>312432</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9834857891970721</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9619897128621608</v>
+        <v>0.9636070125448678</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9935571302754063</v>
+        <v>0.9935700002992915</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>682</v>
@@ -839,19 +839,19 @@
         <v>746472</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>740331</v>
+        <v>740329</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>749689</v>
+        <v>749632</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9930913856442799</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9849214288684567</v>
+        <v>0.9849182008261881</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9973716787840536</v>
+        <v>0.9972955595524956</v>
       </c>
     </row>
     <row r="6">
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4940</v>
+        <v>5294</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002353373150392323</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0117967486364493</v>
+        <v>0.01264196856084138</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -964,19 +964,19 @@
         <v>4778</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1007</v>
+        <v>1050</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12263</v>
+        <v>12815</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01413704119547222</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002979253014964614</v>
+        <v>0.003107440261638981</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03627924720916931</v>
+        <v>0.03791262632645777</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -985,19 +985,19 @@
         <v>5764</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1924</v>
+        <v>1957</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12563</v>
+        <v>13177</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00761628036653323</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002541986601549226</v>
+        <v>0.00258637356845176</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01660061687542327</v>
+        <v>0.0174111858490178</v>
       </c>
     </row>
     <row r="8">
@@ -1014,7 +1014,7 @@
         <v>417811</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>413857</v>
+        <v>413503</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>418797</v>
@@ -1023,7 +1023,7 @@
         <v>0.9976466268496077</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9882032513635507</v>
+        <v>0.9873580314391596</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1035,19 +1035,19 @@
         <v>333233</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>325748</v>
+        <v>325196</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>337004</v>
+        <v>336961</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9858629588045278</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9637207527908306</v>
+        <v>0.9620873736735427</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9970207469850353</v>
+        <v>0.996892559738361</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>675</v>
@@ -1056,19 +1056,19 @@
         <v>751044</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>744245</v>
+        <v>743631</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>754884</v>
+        <v>754851</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9923837196334667</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9833993831245768</v>
+        <v>0.9825888141509823</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9974580133984507</v>
+        <v>0.9974136264315483</v>
       </c>
     </row>
     <row r="9">
@@ -1160,19 +1160,19 @@
         <v>4119</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1082</v>
+        <v>1058</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10203</v>
+        <v>10146</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006543743170962881</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001718779629915203</v>
+        <v>0.001680155200112301</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01620995741443917</v>
+        <v>0.01611901484472783</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1181,19 +1181,19 @@
         <v>5945</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1937</v>
+        <v>2029</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11478</v>
+        <v>12273</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0228554824906381</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007446554009573146</v>
+        <v>0.007798347476870718</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04412595573702276</v>
+        <v>0.04718075124654287</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -1202,19 +1202,19 @@
         <v>10064</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5019</v>
+        <v>4893</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17360</v>
+        <v>17849</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01131378519286489</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005642577623613866</v>
+        <v>0.005501045371970052</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0195161752185147</v>
+        <v>0.02006513164809822</v>
       </c>
     </row>
     <row r="11">
@@ -1231,19 +1231,19 @@
         <v>625296</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>619212</v>
+        <v>619269</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>628333</v>
+        <v>628357</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9934562568290372</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9837900425855606</v>
+        <v>0.9838809851552723</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9982812203700847</v>
+        <v>0.9983198447998877</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>238</v>
@@ -1252,19 +1252,19 @@
         <v>254184</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>248651</v>
+        <v>247856</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>258192</v>
+        <v>258100</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9771445175093619</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9558740442629774</v>
+        <v>0.9528192487534571</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9925534459904268</v>
+        <v>0.9922016525231293</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>825</v>
@@ -1273,19 +1273,19 @@
         <v>879480</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>872184</v>
+        <v>871695</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>884525</v>
+        <v>884651</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9886862148071351</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9804838247814854</v>
+        <v>0.9799348683519019</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9943574223763861</v>
+        <v>0.9944989546280301</v>
       </c>
     </row>
     <row r="12">
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6877</v>
+        <v>7595</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.001719162214555735</v>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.005933412075192507</v>
+        <v>0.006552844615293494</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -1398,19 +1398,19 @@
         <v>13484</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7377</v>
+        <v>7352</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23244</v>
+        <v>23016</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01763216713389962</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009647119362703996</v>
+        <v>0.009613508212220609</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03039530974104252</v>
+        <v>0.0300976835746877</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -1419,19 +1419,19 @@
         <v>15476</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8390</v>
+        <v>9283</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24869</v>
+        <v>25918</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.008044903819863929</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004361527260515625</v>
+        <v>0.004825689149031222</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01292755162355252</v>
+        <v>0.01347298482539148</v>
       </c>
     </row>
     <row r="14">
@@ -1448,7 +1448,7 @@
         <v>1157016</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1152132</v>
+        <v>1151414</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>1159009</v>
@@ -1457,7 +1457,7 @@
         <v>0.9982808377854443</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9940665879248075</v>
+        <v>0.9934471553847051</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1469,19 +1469,19 @@
         <v>751238</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>741478</v>
+        <v>741706</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>757345</v>
+        <v>757370</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9823678328661004</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9696046902589586</v>
+        <v>0.9699023164253124</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.990352880637296</v>
+        <v>0.9903864917877796</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1778</v>
@@ -1490,19 +1490,19 @@
         <v>1908255</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1898862</v>
+        <v>1897813</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1915341</v>
+        <v>1914448</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9919550961801361</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9870724483764475</v>
+        <v>0.9865270151746085</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9956384727394844</v>
+        <v>0.9951743108509687</v>
       </c>
     </row>
     <row r="15">
@@ -1594,19 +1594,19 @@
         <v>3196</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8668</v>
+        <v>8853</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00625933163291785</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001958742465969186</v>
+        <v>0.001965014393738738</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01697719085451363</v>
+        <v>0.01733890446649478</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -1615,19 +1615,19 @@
         <v>20189</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12170</v>
+        <v>12391</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31477</v>
+        <v>32254</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0265553641395095</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01600821193806311</v>
+        <v>0.01629907295179881</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04140379674415091</v>
+        <v>0.04242513880304345</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -1636,19 +1636,19 @@
         <v>23385</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14520</v>
+        <v>14431</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36895</v>
+        <v>34070</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01840086975002884</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01142541979885227</v>
+        <v>0.01135537832667786</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02903222200230932</v>
+        <v>0.02680899477446598</v>
       </c>
     </row>
     <row r="17">
@@ -1665,19 +1665,19 @@
         <v>507400</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>501928</v>
+        <v>501743</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>509596</v>
+        <v>509593</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9937406683670822</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9830228091454862</v>
+        <v>0.9826610955335049</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9980412575340308</v>
+        <v>0.9980349856062614</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>684</v>
@@ -1686,19 +1686,19 @@
         <v>740057</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>728769</v>
+        <v>727992</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>748076</v>
+        <v>747855</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9734446358604905</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.958596203255849</v>
+        <v>0.9575748611969563</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9839917880619369</v>
+        <v>0.9837009270482011</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1168</v>
@@ -1707,19 +1707,19 @@
         <v>1247458</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1233948</v>
+        <v>1236773</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1256323</v>
+        <v>1256412</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9815991302499711</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9709677779976907</v>
+        <v>0.973191005225534</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9885745802011477</v>
+        <v>0.9886446216733221</v>
       </c>
     </row>
     <row r="18">
@@ -1824,19 +1824,19 @@
         <v>22028</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13650</v>
+        <v>13637</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35060</v>
+        <v>33993</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01987794472730033</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01231758527756139</v>
+        <v>0.01230565752757146</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03163777336682733</v>
+        <v>0.03067453741486927</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>20</v>
@@ -1845,19 +1845,19 @@
         <v>22028</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13748</v>
+        <v>13745</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>33512</v>
+        <v>32800</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01601985765386102</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009998372306319482</v>
+        <v>0.009996092299120771</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02437172060717704</v>
+        <v>0.02385368225970975</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>1086141</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1073109</v>
+        <v>1074176</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1094519</v>
+        <v>1094532</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9801220552726997</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9683622266331726</v>
+        <v>0.9693254625851307</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9876824147224386</v>
+        <v>0.9876943424724285</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1288</v>
@@ -1908,19 +1908,19 @@
         <v>1353023</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1341539</v>
+        <v>1342251</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1361303</v>
+        <v>1361306</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.983980142346139</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9756282793928234</v>
+        <v>0.9761463177402903</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9900016276936805</v>
+        <v>0.9900039077008793</v>
       </c>
     </row>
     <row r="21">
@@ -2012,19 +2012,19 @@
         <v>10293</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5136</v>
+        <v>5159</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18390</v>
+        <v>18740</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003007919894081715</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001501022477909607</v>
+        <v>0.001507532377017102</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.005374051002712977</v>
+        <v>0.005476548278112708</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>66</v>
@@ -2033,19 +2033,19 @@
         <v>71617</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>55896</v>
+        <v>55731</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>89779</v>
+        <v>89839</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02019816167183111</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01576431541758735</v>
+        <v>0.01571791097413868</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02532037954897697</v>
+        <v>0.02533720309946563</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>76</v>
@@ -2054,19 +2054,19 @@
         <v>81910</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>64821</v>
+        <v>65612</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>101627</v>
+        <v>103979</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01175578456675918</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009303216947532264</v>
+        <v>0.009416668465840277</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01458549766027689</v>
+        <v>0.01492312468152244</v>
       </c>
     </row>
     <row r="23">
@@ -2083,19 +2083,19 @@
         <v>3411617</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3403520</v>
+        <v>3403170</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3416774</v>
+        <v>3416751</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9969920801059183</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.994625948997287</v>
+        <v>0.9945234517218875</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9984989775220904</v>
+        <v>0.9984924676229829</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3221</v>
@@ -2104,19 +2104,19 @@
         <v>3474115</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3455953</v>
+        <v>3455893</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3489836</v>
+        <v>3490001</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9798018383281689</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9746796204510231</v>
+        <v>0.9746627969005345</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9842356845824127</v>
+        <v>0.9842820890258615</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6416</v>
@@ -2125,19 +2125,19 @@
         <v>6885732</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6866015</v>
+        <v>6863663</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6902821</v>
+        <v>6902030</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9882442154332408</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9854145023397229</v>
+        <v>0.9850768753184771</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9906967830524677</v>
+        <v>0.9905833315341592</v>
       </c>
     </row>
     <row r="24">
@@ -2471,19 +2471,19 @@
         <v>4144</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1060</v>
+        <v>991</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10848</v>
+        <v>9561</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009658630791312607</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002469491480305204</v>
+        <v>0.002310502147502689</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02528045663659965</v>
+        <v>0.02228129969136494</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -2492,19 +2492,19 @@
         <v>5946</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1993</v>
+        <v>1839</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13692</v>
+        <v>13414</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01713347828129571</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005742716223050934</v>
+        <v>0.005298796247790324</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03945226538136423</v>
+        <v>0.03864987781565018</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -2513,19 +2513,19 @@
         <v>10091</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4915</v>
+        <v>4623</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18958</v>
+        <v>18796</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0130010166724471</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006332704080842253</v>
+        <v>0.005956046727674283</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02442561106895033</v>
+        <v>0.02421658657511346</v>
       </c>
     </row>
     <row r="5">
@@ -2542,19 +2542,19 @@
         <v>424948</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>418244</v>
+        <v>419531</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>428032</v>
+        <v>428101</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9903413692086874</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9747195433634004</v>
+        <v>0.9777187003086352</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9975305085196947</v>
+        <v>0.9976894978524973</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>327</v>
@@ -2563,19 +2563,19 @@
         <v>341109</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>333363</v>
+        <v>333641</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>345062</v>
+        <v>345216</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9828665217187043</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9605477346186356</v>
+        <v>0.9613501221843491</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.994257283776949</v>
+        <v>0.9947012037522096</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>719</v>
@@ -2584,19 +2584,19 @@
         <v>766056</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>757189</v>
+        <v>757351</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>771232</v>
+        <v>771524</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9869989833275529</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9755743889310486</v>
+        <v>0.9757834134248863</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9936672959191577</v>
+        <v>0.9940439532723256</v>
       </c>
     </row>
     <row r="6">
@@ -2704,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4881</v>
+        <v>5792</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002791301122467287</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01311041946504532</v>
+        <v>0.01555897231718881</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5224</v>
+        <v>4912</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001386426186552926</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.00696950162246613</v>
+        <v>0.006553657398827623</v>
       </c>
     </row>
     <row r="8">
@@ -2764,7 +2764,7 @@
         <v>371234</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>367392</v>
+        <v>366481</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>372273</v>
@@ -2773,7 +2773,7 @@
         <v>0.9972086988775327</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9868895805349556</v>
+        <v>0.9844410276828115</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -2785,7 +2785,7 @@
         <v>748461</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>744276</v>
+        <v>744588</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>749500</v>
@@ -2794,7 +2794,7 @@
         <v>0.9986135738134471</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9930304983775338</v>
+        <v>0.9934463426011714</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6380</v>
+        <v>6452</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003496402882957841</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01222492651332857</v>
+        <v>0.01236187716558814</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -2910,19 +2910,19 @@
         <v>4509</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1157</v>
+        <v>1162</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11631</v>
+        <v>10207</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02714435670081467</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006963111201097205</v>
+        <v>0.006995662433849033</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07001415226232013</v>
+        <v>0.06144050633738821</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -2931,19 +2931,19 @@
         <v>6334</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2365</v>
+        <v>2961</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13507</v>
+        <v>13180</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009206077339927744</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003436811936933406</v>
+        <v>0.00430294719221041</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01963134987808694</v>
+        <v>0.01915526700859284</v>
       </c>
     </row>
     <row r="11">
@@ -2960,7 +2960,7 @@
         <v>520089</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>515534</v>
+        <v>515462</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>521914</v>
@@ -2969,7 +2969,7 @@
         <v>0.9965035971170422</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9877750734866715</v>
+        <v>0.9876381228344119</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -2981,19 +2981,19 @@
         <v>161614</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>154492</v>
+        <v>155916</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>164966</v>
+        <v>164961</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9728556432991853</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9299858477376781</v>
+        <v>0.9385594936626118</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9930368887989027</v>
+        <v>0.9930043375661509</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>649</v>
@@ -3002,19 +3002,19 @@
         <v>681702</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>674529</v>
+        <v>674856</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>685671</v>
+        <v>685075</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9907939226600723</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.980368650121913</v>
+        <v>0.9808447329914073</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9965631880630665</v>
+        <v>0.9956970528077896</v>
       </c>
     </row>
     <row r="12">
@@ -3106,19 +3106,19 @@
         <v>7103</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2832</v>
+        <v>2724</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14465</v>
+        <v>14189</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006178242930765641</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002463222737768716</v>
+        <v>0.002369187935887221</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01258211767579948</v>
+        <v>0.0123422845255144</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -3127,19 +3127,19 @@
         <v>10104</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4511</v>
+        <v>4645</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18092</v>
+        <v>18066</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01223407994253131</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005462646716240221</v>
+        <v>0.005624852506183166</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02190630485072857</v>
+        <v>0.02187467652855368</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -3148,19 +3148,19 @@
         <v>17207</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10222</v>
+        <v>10092</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>27182</v>
+        <v>27141</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.008709922792253849</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005174584230832979</v>
+        <v>0.005108352610109204</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01375953869913371</v>
+        <v>0.01373883731263152</v>
       </c>
     </row>
     <row r="14">
@@ -3177,19 +3177,19 @@
         <v>1142535</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1135173</v>
+        <v>1135449</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1146806</v>
+        <v>1146914</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9938217570692344</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9874178823242006</v>
+        <v>0.9876577154744852</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9975367772622313</v>
+        <v>0.9976308120641124</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>789</v>
@@ -3198,19 +3198,19 @@
         <v>815772</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>807784</v>
+        <v>807810</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>821365</v>
+        <v>821231</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9877659200574687</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9780936951492714</v>
+        <v>0.9781253234714462</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9945373532837597</v>
+        <v>0.9943751474938166</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1885</v>
@@ -3219,19 +3219,19 @@
         <v>1958307</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1948332</v>
+        <v>1948373</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1965292</v>
+        <v>1965422</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9912900772077462</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9862404613008664</v>
+        <v>0.9862611626873685</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9948254157691672</v>
+        <v>0.9948916473898909</v>
       </c>
     </row>
     <row r="15">
@@ -3323,19 +3323,19 @@
         <v>2465</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6737</v>
+        <v>7384</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003971943559903272</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001229841494739135</v>
+        <v>0.001240987001205117</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01085329122716657</v>
+        <v>0.01189585354514631</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -3344,19 +3344,19 @@
         <v>15669</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8546</v>
+        <v>8248</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26907</v>
+        <v>24940</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02122528756468789</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01157602926060804</v>
+        <v>0.01117248538684939</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03644698381517872</v>
+        <v>0.03378307113929521</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -3365,19 +3365,19 @@
         <v>18135</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10428</v>
+        <v>10580</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29504</v>
+        <v>27959</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0133447533250098</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007673328463585539</v>
+        <v>0.007785466622880572</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02171094076766169</v>
+        <v>0.0205742603702657</v>
       </c>
     </row>
     <row r="17">
@@ -3394,19 +3394,19 @@
         <v>618241</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>613969</v>
+        <v>613322</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>619943</v>
+        <v>619936</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9960280564400967</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9891467087728334</v>
+        <v>0.9881041464548534</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9987701585052609</v>
+        <v>0.9987590129987949</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>685</v>
@@ -3415,19 +3415,19 @@
         <v>722575</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>711337</v>
+        <v>713304</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>729698</v>
+        <v>729996</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9787747124353121</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.963553016184821</v>
+        <v>0.9662169288607049</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9884239707393919</v>
+        <v>0.9888275146131507</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1279</v>
@@ -3436,19 +3436,19 @@
         <v>1340815</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1329446</v>
+        <v>1330991</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1348522</v>
+        <v>1348370</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9866552466749902</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9782890592323389</v>
+        <v>0.9794257396297344</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9923266715364146</v>
+        <v>0.9922145333771195</v>
       </c>
     </row>
     <row r="18">
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4436</v>
+        <v>4389</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003568064393161975</v>
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01544734624239347</v>
+        <v>0.01528617285320456</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -3561,19 +3561,19 @@
         <v>21863</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13228</v>
+        <v>13889</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>33394</v>
+        <v>35297</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02020559654185718</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01222545794160707</v>
+        <v>0.01283582769315337</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03086237901344398</v>
+        <v>0.03262117554769189</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -3582,19 +3582,19 @@
         <v>22888</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13932</v>
+        <v>13261</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>35761</v>
+        <v>34855</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01671633909157393</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01017540991397471</v>
+        <v>0.00968570918752836</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02611866170501949</v>
+        <v>0.02545669976991046</v>
       </c>
     </row>
     <row r="20">
@@ -3611,7 +3611,7 @@
         <v>286120</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>282709</v>
+        <v>282756</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>287145</v>
@@ -3620,7 +3620,7 @@
         <v>0.9964319356068381</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9845526537576057</v>
+        <v>0.984713827146794</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3632,19 +3632,19 @@
         <v>1060162</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1048631</v>
+        <v>1046728</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1068797</v>
+        <v>1068136</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9797944034581428</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9691376209865564</v>
+        <v>0.9673788244523082</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9877745420583931</v>
+        <v>0.9871641723068467</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1245</v>
@@ -3653,19 +3653,19 @@
         <v>1346282</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1333409</v>
+        <v>1334315</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1355238</v>
+        <v>1355909</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9832836609084261</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9738813382949806</v>
+        <v>0.9745433002300895</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9898245900860253</v>
+        <v>0.9903142908124716</v>
       </c>
     </row>
     <row r="21">
@@ -3757,19 +3757,19 @@
         <v>16562</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9679</v>
+        <v>9756</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25986</v>
+        <v>26370</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004891709435577818</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002858697478952466</v>
+        <v>0.002881398907417263</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.007675289094605479</v>
+        <v>0.007788557695080877</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>51</v>
@@ -3778,19 +3778,19 @@
         <v>59131</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43337</v>
+        <v>45030</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>75766</v>
+        <v>80118</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.016743397634215</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01227125623792629</v>
+        <v>0.01275061744081049</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02145361673854785</v>
+        <v>0.02268598761867852</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>68</v>
@@ -3799,19 +3799,19 @@
         <v>75693</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>57944</v>
+        <v>59274</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>95866</v>
+        <v>96247</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01094251884557502</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008376672012024685</v>
+        <v>0.008568963478675371</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01385886136797214</v>
+        <v>0.01391397446033515</v>
       </c>
     </row>
     <row r="23">
@@ -3828,19 +3828,19 @@
         <v>3369160</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3359736</v>
+        <v>3359352</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3376043</v>
+        <v>3375966</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9951082905644222</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9923247109053945</v>
+        <v>0.9922114423049191</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9971413025210475</v>
+        <v>0.9971186010925828</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3275</v>
@@ -3849,19 +3849,19 @@
         <v>3472465</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3455830</v>
+        <v>3451478</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3488259</v>
+        <v>3486566</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.983256602365785</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9785463832614522</v>
+        <v>0.9773140123813213</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9877287437620736</v>
+        <v>0.9872493825591895</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6482</v>
@@ -3870,19 +3870,19 @@
         <v>6841625</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6821452</v>
+        <v>6821071</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6859374</v>
+        <v>6858044</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9890574811544249</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9861411386320279</v>
+        <v>0.9860860255396648</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9916233279879754</v>
+        <v>0.9914310365213247</v>
       </c>
     </row>
     <row r="24">
